--- a/数据库表/ai_user.xlsx
+++ b/数据库表/ai_user.xlsx
@@ -13,12 +13,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>ai_user_id</t>
   </si>
   <si>
     <t>ai_user_pwd</t>
+  </si>
+  <si>
+    <t>ai_user_type</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>用户</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -62,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C8"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -72,6 +108,86 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
